--- a/data/fractionation/Quant/230310 Batch 139 ABCD Quant (2).xlsx
+++ b/data/fractionation/Quant/230310 Batch 139 ABCD Quant (2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allen127\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\Quant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEB3A31-4825-447F-8091-4660F43C2C83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA26397-4CFA-4227-A431-DEDE80A611AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="2505" windowWidth="17010" windowHeight="10425" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart 1" sheetId="10" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -464,8 +464,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,6 +509,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -512,10 +524,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -533,6 +546,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,7 +554,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7941,9 +7956,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -7981,9 +7996,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8016,26 +8031,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8068,26 +8066,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8263,17 +8244,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CT104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -8566,7 +8547,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -8859,12 +8840,12 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="N7" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -8896,7 +8877,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -8938,7 +8919,7 @@
         <v>-0.89575470946940228</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -8981,7 +8962,7 @@
         <v>-0.85894287209394737</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -9024,7 +9005,7 @@
         <v>-0.38038898621303385</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -9067,7 +9048,7 @@
         <v>3.0185706647873007</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -9110,7 +9091,7 @@
         <v>4.6505621217658009</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -9153,7 +9134,7 @@
         <v>7.0801433885458227</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -9192,7 +9173,7 @@
         <v>24.308083280258714</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -9226,7 +9207,7 @@
         <v>63.426795797908767</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -9253,7 +9234,7 @@
         <v>208.1463991332804</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -9280,7 +9261,7 @@
         <v>360.14247565653363</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -9307,7 +9288,7 @@
         <v>246.22210959195925</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -9334,7 +9315,7 @@
         <v>183.47019747926714</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -9361,7 +9342,7 @@
         <v>69.623455089443681</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -9388,7 +9369,7 @@
         <v>34.394526721133346</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -9415,7 +9396,7 @@
         <v>21.093182816135648</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -9442,7 +9423,7 @@
         <v>10.086443440874639</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -9469,7 +9450,7 @@
         <v>5.3622576443579284</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -9496,7 +9477,7 @@
         <v>3.4603127132927596</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -9523,7 +9504,7 @@
         <v>3.5707482254191243</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -9550,7 +9531,7 @@
         <v>3.0185706647873007</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -9577,7 +9558,7 @@
         <v>2.0246510556500188</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -9604,7 +9585,7 @@
         <v>-0.14724734950181956</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -9631,7 +9612,7 @@
         <v>-1.0184608340542518</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -9658,7 +9639,7 @@
         <v>-0.77304858488455264</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -9685,7 +9666,7 @@
         <v>0.73623674750909784</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -9712,7 +9693,7 @@
         <v>0.92029593438637214</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -9739,7 +9720,7 @@
         <v>12.85960185649224</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -9766,7 +9747,7 @@
         <v>29.069080914150874</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -9793,7 +9774,7 @@
         <v>56.690229558200528</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -9820,7 +9801,7 @@
         <v>141.4924322587901</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -9847,7 +9828,7 @@
         <v>545.98090134028848</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -9874,7 +9855,7 @@
         <v>755.19484375745708</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -9901,7 +9882,7 @@
         <v>695.3510667974258</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -9928,7 +9909,7 @@
         <v>416.19463336689296</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -9955,7 +9936,7 @@
         <v>145.98347641859559</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -9982,7 +9963,7 @@
         <v>66.776672999075174</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -10009,7 +9990,7 @@
         <v>31.486391568472417</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -10036,7 +10017,7 @@
         <v>16.00087864586439</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -10063,7 +10044,7 @@
         <v>9.656972004827665</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -10090,7 +10071,7 @@
         <v>5.9757882672821774</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -10117,7 +10098,7 @@
         <v>7.9513568730982556</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -10144,7 +10125,7 @@
         <v>8.1354160599755296</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -10171,7 +10152,7 @@
         <v>4.1965494608018572</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -10198,7 +10179,7 @@
         <v>6.2334711289103604</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -10225,7 +10206,7 @@
         <v>-0.80986042226000754</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -10252,7 +10233,7 @@
         <v>-0.39265959867151878</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -10279,7 +10260,7 @@
         <v>4.0370314988415528</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -10306,7 +10287,7 @@
         <v>10.25823201529343</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -10333,7 +10314,7 @@
         <v>13.534485541708914</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -10360,7 +10341,7 @@
         <v>36.70140186332852</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -10387,7 +10368,7 @@
         <v>64.187573770334836</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -10414,7 +10395,7 @@
         <v>85.832934147102321</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -10441,7 +10422,7 @@
         <v>216.90761642863868</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -10468,7 +10449,7 @@
         <v>410.62377531074077</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -10495,7 +10476,7 @@
         <v>400.13240165873611</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -10522,7 +10503,7 @@
         <v>234.85952245540219</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -10549,7 +10530,7 @@
         <v>92.998971822857527</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -10576,7 +10557,7 @@
         <v>46.628327342242855</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -10603,7 +10584,7 @@
         <v>30.406577672125739</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -10630,7 +10611,7 @@
         <v>15.105123936394989</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -10657,7 +10638,7 @@
         <v>7.0924140010043075</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -10684,7 +10665,7 @@
         <v>3.9143253742567028</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -10711,7 +10692,7 @@
         <v>4.4174204850545866</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -10738,7 +10719,7 @@
         <v>2.7118053533251767</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -10765,7 +10746,7 @@
         <v>1.8160506438557744</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -10792,7 +10773,7 @@
         <v>0.28222408654515413</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -10819,7 +10800,7 @@
         <v>-0.58898939800727823</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -10846,7 +10827,7 @@
         <v>31.056920132425439</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -10873,7 +10854,7 @@
         <v>0.11043551212636465</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -10900,7 +10881,7 @@
         <v>4.4419617099715563</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -10927,7 +10908,7 @@
         <v>20.860041179424439</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -10954,7 +10935,7 @@
         <v>39.069630067816121</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -10981,7 +10962,7 @@
         <v>78.065636460881336</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -11008,7 +10989,7 @@
         <v>134.71905418170641</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -11035,7 +11016,7 @@
         <v>186.41514446930356</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -11062,7 +11043,7 @@
         <v>313.04786504086837</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -11089,7 +11070,7 @@
         <v>258.27185102619148</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -11116,7 +11097,7 @@
         <v>175.39613448158406</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -11143,7 +11124,7 @@
         <v>85.943369659228665</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -11170,7 +11151,7 @@
         <v>30.026188685912704</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -11197,7 +11178,7 @@
         <v>17.264751729088342</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -11224,7 +11205,7 @@
         <v>9.8410311917049391</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -11251,7 +11232,7 @@
         <v>6.6506719524988505</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -11278,7 +11259,7 @@
         <v>4.8346213086430749</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -11305,7 +11286,7 @@
         <v>5.3745282568164132</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -11332,7 +11313,7 @@
         <v>6.9697078764194584</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -11359,7 +11340,7 @@
         <v>2.8099702529930566</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -11386,7 +11367,7 @@
         <v>0.95710777176182704</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -11394,7 +11375,7 @@
         <v>3471</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -11402,7 +11383,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -11410,7 +11391,7 @@
         <v>4059</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -11418,7 +11399,7 @@
         <v>22551</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -11426,7 +11407,7 @@
         <v>10990</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -11434,7 +11415,7 @@
         <v>6595</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -11442,7 +11423,7 @@
         <v>9773</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -11466,13 +11447,13 @@
       <selection activeCell="A7" sqref="A7:B104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -11765,7 +11746,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -12058,12 +12039,12 @@
         <v>3529</v>
       </c>
     </row>
-    <row r="7" spans="1:98" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:98" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="N7" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -12095,7 +12076,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -12134,7 +12115,7 @@
         <v>-0.83165624004791894</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -12173,7 +12154,7 @@
         <v>-0.39206651316544749</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -12212,7 +12193,7 @@
         <v>-0.62968258175056713</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -12251,7 +12232,7 @@
         <v>2.7919888058751563</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -12290,7 +12271,7 @@
         <v>4.5265861065465298</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -12329,7 +12310,7 @@
         <v>6.8552235786807039</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -12368,7 +12349,7 @@
         <v>23.832891679087503</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -12402,7 +12383,7 @@
         <v>53.154714542491277</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -12429,7 +12410,7 @@
         <v>204.15972612833485</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -12456,7 +12437,7 @@
         <v>349.02236234125303</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -12483,7 +12464,7 @@
         <v>241.15654800703797</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -12510,7 +12491,7 @@
         <v>181.34858354416335</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -12537,7 +12518,7 @@
         <v>68.59975900052406</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -12564,7 +12545,7 @@
         <v>33.551388884218902</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -12591,7 +12572,7 @@
         <v>20.553789932612855</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -12618,7 +12599,7 @@
         <v>10.098682914867588</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -12645,7 +12626,7 @@
         <v>5.6671432357551046</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -12672,7 +12653,7 @@
         <v>3.3860289773379559</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -12699,7 +12680,7 @@
         <v>3.5404794219182834</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -12726,7 +12707,7 @@
         <v>3.1008896950358125</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -12753,7 +12734,7 @@
         <v>1.8771669418224457</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -12780,7 +12761,7 @@
         <v>-0.21385446172660774</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -12807,7 +12788,7 @@
         <v>-0.83165624004791894</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -12834,7 +12815,7 @@
         <v>-0.67720579546759119</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -12861,7 +12842,7 @@
         <v>-0.40394731659470351</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -12888,7 +12869,7 @@
         <v>1.0455107017745267</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -12915,7 +12896,7 @@
         <v>12.712459669303904</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -12942,7 +12923,7 @@
         <v>28.478285819926597</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -12969,7 +12950,7 @@
         <v>56.148677006663789</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -12996,7 +12977,7 @@
         <v>139.26677779773865</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -13023,7 +13004,7 @@
         <v>541.64582833978034</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -13050,7 +13031,7 @@
         <v>731.46542472900319</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -13077,7 +13058,7 @@
         <v>697.3199956733215</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -13104,7 +13085,7 @@
         <v>411.94309730259278</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -13131,7 +13112,7 @@
         <v>145.02896746092779</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -13158,7 +13139,7 @@
         <v>67.387917050739944</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -13185,7 +13166,7 @@
         <v>31.115824181221427</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -13212,7 +13193,7 @@
         <v>16.621243997529124</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -13239,7 +13220,7 @@
         <v>9.9085900599994918</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -13266,7 +13247,7 @@
         <v>6.1780177832131127</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -13293,7 +13274,7 @@
         <v>7.6631182118701098</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -13320,7 +13301,7 @@
         <v>8.3878472210547255</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -13347,7 +13328,7 @@
         <v>4.3840164653954581</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -13374,7 +13355,7 @@
         <v>2.4236838995682208</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -13401,7 +13382,7 @@
         <v>-0.93858347091122285</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -13428,7 +13409,7 @@
         <v>-0.45147053031172746</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -13455,7 +13436,7 @@
         <v>5.619620022038081</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -13482,7 +13463,7 @@
         <v>10.276894966306427</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -13509,7 +13490,7 @@
         <v>13.662923943644383</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -13536,7 +13517,7 @@
         <v>36.866133040981317</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -13563,7 +13544,7 @@
         <v>63.633583167095054</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -13590,7 +13571,7 @@
         <v>90.282225258916228</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -13617,7 +13598,7 @@
         <v>216.30190723303446</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -13644,7 +13625,7 @@
         <v>411.64607721686139</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -13671,7 +13652,7 @@
         <v>391.86453950715014</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -13698,7 +13679,7 @@
         <v>228.09954503828564</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -13725,7 +13706,7 @@
         <v>87.371428418748508</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -13752,7 +13733,7 @@
         <v>46.941054348990399</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -13779,7 +13760,7 @@
         <v>29.999028658871364</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -13806,7 +13787,7 @@
         <v>15.421282851174269</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -13833,7 +13814,7 @@
         <v>7.2235284849876393</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -13860,7 +13841,7 @@
         <v>4.3483740551076906</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -13887,7 +13868,7 @@
         <v>4.9542950299997459</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -13914,7 +13895,7 @@
         <v>2.9939624641725082</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -13941,7 +13922,7 @@
         <v>2.2573526515586368</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -13968,7 +13949,7 @@
         <v>0.97422588119899078</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -13995,7 +13976,7 @@
         <v>-0.35642410287767956</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -14022,7 +14003,7 @@
         <v>-0.90294106062345492</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -14049,7 +14030,7 @@
         <v>0.34454329944842355</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -14076,7 +14057,7 @@
         <v>4.8117253888486742</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -14103,7 +14084,7 @@
         <v>20.886452428632019</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -14130,7 +14111,7 @@
         <v>38.802703999950047</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -14157,7 +14138,7 @@
         <v>74.445114287718013</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -14184,7 +14165,7 @@
         <v>129.52451898574876</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -14211,7 +14192,7 @@
         <v>186.05338170214873</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -14238,7 +14219,7 @@
         <v>312.84531589916861</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -14265,7 +14246,7 @@
         <v>263.23108077859564</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -14292,7 +14273,7 @@
         <v>175.46758584668166</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -14319,7 +14300,7 @@
         <v>87.59716368390437</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -14346,7 +14327,7 @@
         <v>30.747519274914488</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -14373,7 +14354,7 @@
         <v>17.928132374747282</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -14400,7 +14381,7 @@
         <v>10.490749428033034</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -14427,7 +14408,7 @@
         <v>7.1997668781291271</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -14454,7 +14435,7 @@
         <v>5.5483352014625451</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -14481,7 +14462,7 @@
         <v>5.7384280563306413</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -14508,7 +14489,7 @@
         <v>5.8928785009109683</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -14535,7 +14516,7 @@
         <v>3.1127704984650677</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -14562,7 +14543,7 @@
         <v>1.3900540012229503</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -14570,7 +14551,7 @@
         <v>3378</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -14578,7 +14559,7 @@
         <v>3932</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -14586,7 +14567,7 @@
         <v>4057</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -14594,7 +14575,7 @@
         <v>22611</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -14602,7 +14583,7 @@
         <v>10766</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -14610,7 +14591,7 @@
         <v>6678</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -14618,7 +14599,7 @@
         <v>9678</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -14641,13 +14622,13 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -14940,7 +14921,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -15233,12 +15214,12 @@
         <v>3508</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="N7" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>120</v>
       </c>
@@ -15270,7 +15251,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -15309,7 +15290,7 @@
         <v>-0.88068577474648146</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -15348,7 +15329,7 @@
         <v>-0.9310106761605661</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -15387,7 +15368,7 @@
         <v>-0.59131759161549469</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -15426,7 +15407,7 @@
         <v>2.9565879580774732</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -15465,7 +15446,7 @@
         <v>4.6298909300957884</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -15504,7 +15485,7 @@
         <v>7.1964609022141062</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -15543,7 +15524,7 @@
         <v>24.394995960477534</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -15577,7 +15558,7 @@
         <v>54.97995479488749</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -15604,7 +15585,7 @@
         <v>208.672203713502</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -15631,7 +15612,7 @@
         <v>359.58400182898833</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -15658,7 +15639,7 @@
         <v>244.74257680204718</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -15685,7 +15666,7 @@
         <v>187.62381369706111</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -15712,7 +15693,7 @@
         <v>70.391955852950915</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -15739,7 +15720,7 @@
         <v>34.472557468647985</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -15766,7 +15747,7 @@
         <v>20.960321438966258</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -15793,7 +15774,7 @@
         <v>10.329186015240875</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -15820,7 +15801,7 @@
         <v>5.925757141508468</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -15847,7 +15828,7 @@
         <v>3.4724181975718409</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -15874,7 +15855,7 @@
         <v>3.5479055496929677</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -15901,7 +15882,7 @@
         <v>3.2459561412084605</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -15928,7 +15909,7 @@
         <v>1.8494401269676111</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -15955,7 +15936,7 @@
         <v>-0.27678695777746559</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -15982,7 +15963,7 @@
         <v>-1.0442417043422565</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -16009,7 +15990,7 @@
         <v>-0.70454861979718508</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -16036,7 +16017,7 @@
         <v>-0.41518043666619842</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -16063,7 +16044,7 @@
         <v>0.9310106761605661</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -16090,7 +16071,7 @@
         <v>12.795106184531022</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -16117,7 +16098,7 @@
         <v>30.547215158349385</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -16144,7 +16125,7 @@
         <v>57.659755795187493</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -16171,7 +16152,7 @@
         <v>147.76649177710607</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -16198,7 +16179,7 @@
         <v>551.38478234341858</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -16225,7 +16206,7 @@
         <v>774.43732663599519</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -16252,7 +16233,7 @@
         <v>705.97029826213304</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -16279,7 +16260,7 @@
         <v>419.5838655399308</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -16306,7 +16287,7 @@
         <v>148.60943387579198</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -16333,7 +16314,7 @@
         <v>68.680909204872037</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -16360,7 +16341,7 @@
         <v>32.597954890973334</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -16387,7 +16368,7 @@
         <v>16.934329325839485</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -16414,7 +16395,7 @@
         <v>9.9265868039281973</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -16441,7 +16422,7 @@
         <v>6.227706549992976</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -16468,7 +16449,7 @@
         <v>7.8003597191831204</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -16495,7 +16476,7 @@
         <v>8.0897279023141078</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -16522,7 +16503,7 @@
         <v>4.3279415216112804</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -16549,7 +16530,7 @@
         <v>2.3401079157549365</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -16576,7 +16557,7 @@
         <v>-0.81777964797887559</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -16603,7 +16584,7 @@
         <v>-0.40259921131267723</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -16630,7 +16611,7 @@
         <v>4.1643855920155044</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -16657,7 +16638,7 @@
         <v>10.429835818069044</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -16684,7 +16665,7 @@
         <v>14.380340579074689</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -16711,7 +16692,7 @@
         <v>37.353658074604333</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -16738,7 +16719,7 @@
         <v>65.019772626997366</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -16765,7 +16746,7 @@
         <v>92.497168799087589</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -16792,7 +16773,7 @@
         <v>220.08337510914572</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -16819,7 +16800,7 @@
         <v>414.22426353933076</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -16846,7 +16827,7 @@
         <v>399.50422987571102</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -16873,7 +16854,7 @@
         <v>233.97304789943308</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -16900,7 +16881,7 @@
         <v>87.942765221112921</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -16927,7 +16908,7 @@
         <v>46.827320765805773</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -16954,7 +16935,7 @@
         <v>30.383659228753608</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -16981,7 +16962,7 @@
         <v>15.37425738200286</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -17008,7 +16989,7 @@
         <v>7.2845294796887536</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -17035,7 +17016,7 @@
         <v>3.9253423102986029</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -17062,7 +17043,7 @@
         <v>4.6047284793887453</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -17089,7 +17070,7 @@
         <v>2.8811006059563464</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -17116,7 +17097,7 @@
         <v>2.2017144368662036</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -17143,7 +17124,7 @@
         <v>0.41518043666619842</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -17170,7 +17151,7 @@
         <v>-0.61648004232253706</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -17197,7 +17178,7 @@
         <v>-1.0442417043422565</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -17224,7 +17205,7 @@
         <v>0.11323102818169047</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -17251,7 +17232,7 @@
         <v>4.6676346061563514</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -17278,7 +17259,7 @@
         <v>21.136458593915552</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -17305,7 +17286,7 @@
         <v>39.366654131167721</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -17332,7 +17313,7 @@
         <v>75.588001923955147</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -17359,7 +17340,7 @@
         <v>131.24734288793277</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -17386,7 +17367,7 @@
         <v>187.51058266887941</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -17413,7 +17394,7 @@
         <v>316.09070578186572</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -17440,7 +17421,7 @@
         <v>265.95452274808389</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -17467,7 +17448,7 @@
         <v>176.9046096958611</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -17494,7 +17475,7 @@
         <v>89.377024911414352</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -17521,7 +17502,7 @@
         <v>31.075626623197273</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -17548,7 +17529,7 @@
         <v>17.802433875232445</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -17575,7 +17556,7 @@
         <v>10.643716649078904</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -17602,7 +17583,7 @@
         <v>6.9699988458507249</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -17629,7 +17610,7 @@
         <v>5.2841146484788881</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -17656,7 +17637,7 @@
         <v>5.6741326344380454</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -17683,7 +17664,7 @@
         <v>5.7622012119126929</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -17710,7 +17691,7 @@
         <v>2.9565879580774732</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -17737,7 +17718,7 @@
         <v>1.321028662119722</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -17745,7 +17726,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -17753,7 +17734,7 @@
         <v>3898</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -17761,7 +17742,7 @@
         <v>4023</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -17769,7 +17750,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -17777,7 +17758,7 @@
         <v>10393</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -17785,7 +17766,7 @@
         <v>6532</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -17793,7 +17774,7 @@
         <v>9411</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -17812,23 +17793,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="2" customWidth="1"/>
-    <col min="4" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3828125" customWidth="1"/>
+    <col min="3" max="3" width="13.15234375" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.15234375" customWidth="1"/>
+    <col min="7" max="8" width="14.69140625" customWidth="1"/>
+    <col min="9" max="9" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.15234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -17865,11 +17846,11 @@
       <c r="L1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -17910,7 +17891,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -17948,7 +17929,7 @@
       <c r="N3" s="10"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -17986,7 +17967,7 @@
       <c r="N4" s="10"/>
       <c r="O4" s="11"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -18024,7 +18005,7 @@
       <c r="N5" s="10"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -18062,7 +18043,7 @@
       <c r="N6" s="10"/>
       <c r="O6" s="11"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -18100,7 +18081,7 @@
       <c r="N7" s="10"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -18138,7 +18119,7 @@
       <c r="N8" s="10"/>
       <c r="O8" s="11"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -18176,7 +18157,7 @@
       <c r="N9" s="10"/>
       <c r="O9" s="11"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -18214,7 +18195,7 @@
       <c r="N10" s="10"/>
       <c r="O10" s="11"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -18252,7 +18233,7 @@
       <c r="N11" s="10"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -18290,7 +18271,7 @@
       <c r="N12" s="10"/>
       <c r="O12" s="11"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -18328,7 +18309,7 @@
       <c r="N13" s="10"/>
       <c r="O13" s="11"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -18363,7 +18344,7 @@
         <v>69.53838998097288</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -18398,7 +18379,7 @@
         <v>34.139491024666746</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -18433,7 +18414,7 @@
         <v>20.869098062571588</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -18468,7 +18449,7 @@
         <v>10.171437456994369</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -18503,7 +18484,7 @@
         <v>5.6517193405405006</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -18538,7 +18519,7 @@
         <v>3.4395866294008521</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -18573,7 +18554,7 @@
         <v>3.5530443990101253</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -18608,7 +18589,7 @@
         <v>3.1218055003438576</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -18643,7 +18624,7 @@
         <v>1.917086041480025</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -18686,7 +18667,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -18722,7 +18703,7 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -18757,7 +18738,7 @@
         <v>-0.71826766671644293</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -18792,7 +18773,7 @@
         <v>-2.7630335250601372E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -18827,7 +18808,7 @@
         <v>0.96560577077382148</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -18862,7 +18843,7 @@
         <v>12.789055903442391</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -18897,7 +18878,7 @@
         <v>29.364860630808952</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -18932,7 +18913,7 @@
         <v>56.832887453350594</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -18967,7 +18948,7 @@
         <v>142.8419006112116</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -19002,7 +18983,7 @@
         <v>546.33717067449572</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -19037,7 +19018,7 @@
         <v>753.69919837415182</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -19072,7 +19053,7 @@
         <v>699.54712024429341</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -19107,7 +19088,7 @@
         <v>415.9071987364722</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -19142,7 +19123,7 @@
         <v>146.54062591843848</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -19177,7 +19158,7 @@
         <v>67.615166418229052</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -19212,7 +19193,7 @@
         <v>31.733390213555722</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -19247,7 +19228,7 @@
         <v>16.518817323077666</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -19282,7 +19263,7 @@
         <v>9.8307162895851192</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -19317,7 +19298,7 @@
         <v>6.1271708668294211</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -19352,7 +19333,7 @@
         <v>7.8049449347171631</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -19387,7 +19368,7 @@
         <v>8.204330394448121</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -19422,7 +19403,7 @@
         <v>4.3028358159361986</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -19465,7 +19446,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -19501,7 +19482,7 @@
       </c>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -19536,7 +19517,7 @@
         <v>-0.41557644676530781</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -19571,7 +19552,7 @@
         <v>4.6070123709650463</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -19606,7 +19587,7 @@
         <v>10.321654266556299</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -19641,7 +19622,7 @@
         <v>13.859250021475995</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -19676,7 +19657,7 @@
         <v>36.973730992971397</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -19711,7 +19692,7 @@
         <v>64.28030985480909</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -19746,7 +19727,7 @@
         <v>89.537442735035384</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -19781,7 +19762,7 @@
         <v>217.76429959027297</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -19816,7 +19797,7 @@
         <v>412.16470535564434</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -19851,7 +19832,7 @@
         <v>397.16705701386581</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -19886,7 +19867,7 @@
         <v>232.31070513104029</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -19921,7 +19902,7 @@
         <v>89.437721820906319</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -19956,7 +19937,7 @@
         <v>46.798900819013014</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -19991,7 +19972,7 @@
         <v>30.263088519916902</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -20026,7 +20007,7 @@
         <v>15.300221389857374</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -20061,7 +20042,7 @@
         <v>7.2001573218935668</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -20096,7 +20077,7 @@
         <v>4.0626805798876653</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -20131,7 +20112,7 @@
         <v>4.6588146648143596</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -20166,7 +20147,7 @@
         <v>2.8622894744846765</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -20201,7 +20182,7 @@
         <v>2.0917059107602052</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -20244,7 +20225,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -20280,7 +20261,7 @@
       </c>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -20302,20 +20283,20 @@
         <f>'Plate 3'!N76</f>
         <v>-2.6106042608556413E-2</v>
       </c>
-      <c r="G69">
-        <f t="shared" si="3"/>
-        <v>0.24258114472883105</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="4"/>
-        <v>0.46232398504516686</v>
+      <c r="G69" s="13">
+        <f>AVERAGE(E69:F69)</f>
+        <v>-2.4339784562071393E-2</v>
+      </c>
+      <c r="H69" s="13">
+        <f>STDEV(E69:F69)</f>
+        <v>2.4978660839897245E-3</v>
       </c>
       <c r="I69" s="7">
         <f t="shared" si="5"/>
-        <v>9.7032457891532413</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+        <v>-0.97359138248285571</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -20350,7 +20331,7 @@
         <v>0.18940327991882625</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -20385,7 +20366,7 @@
         <v>4.640440568325527</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -20420,7 +20401,7 @@
         <v>20.960984067324002</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -20455,7 +20436,7 @@
         <v>39.079662732977965</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -20490,7 +20471,7 @@
         <v>76.032917557518161</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -20525,7 +20506,7 @@
         <v>131.83030535179597</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -20560,7 +20541,7 @@
         <v>186.6597029467772</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -20595,7 +20576,7 @@
         <v>313.99462890730092</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -20630,7 +20611,7 @@
         <v>262.48581818429034</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -20665,7 +20646,7 @@
         <v>175.92277667470896</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -20700,7 +20681,7 @@
         <v>87.639186084849143</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -20735,7 +20716,7 @@
         <v>30.616444861341492</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -20770,7 +20751,7 @@
         <v>17.665105993022692</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -20805,7 +20786,7 @@
         <v>10.325165756272295</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -20840,7 +20821,7 @@
         <v>6.9401458921595669</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -20875,7 +20856,7 @@
         <v>5.2223570528615024</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -20910,7 +20891,7 @@
         <v>5.5956963158616997</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -20945,7 +20926,7 @@
         <v>6.2082625297477065</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -20980,7 +20961,7 @@
         <v>2.9597762365118658</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -21016,7 +20997,7 @@
       </c>
       <c r="J89">
         <f>SUM(I68:I89)</f>
-        <v>1395.374125746685</v>
+        <v>1384.6972885750488</v>
       </c>
       <c r="K89" t="e">
         <f>J89/L68*100</f>
